--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,178 +40,193 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -569,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -688,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -738,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,16 +774,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,16 +824,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8527397260273972</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C7">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D7">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.9166666666666666</v>
@@ -891,10 +906,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.9112271540469974</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7948717948717948</v>
+        <v>0.725</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,31 +971,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <v>0.9033942558746736</v>
+      </c>
+      <c r="L9">
+        <v>346</v>
+      </c>
+      <c r="M9">
+        <v>346</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>37</v>
-      </c>
-      <c r="K9">
-        <v>0.9069767441860465</v>
-      </c>
-      <c r="L9">
-        <v>39</v>
-      </c>
-      <c r="M9">
-        <v>39</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.725</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.8928571428571429</v>
@@ -1038,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7073643410852714</v>
+        <v>0.6724806201550387</v>
       </c>
       <c r="C11">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D11">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8867924528301887</v>
+        <v>0.8828125</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6862745098039216</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>0.8802816901408451</v>
@@ -1138,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.671957671957672</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C13">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L13">
         <v>41</v>
       </c>
-      <c r="K13">
-        <v>0.875</v>
-      </c>
-      <c r="L13">
-        <v>112</v>
-      </c>
       <c r="M13">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8625</v>
       </c>
       <c r="L14">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M14">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,16 +1274,16 @@
         <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6101694915254238</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5861111111111111</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C17">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>0.8536585365853658</v>
@@ -1388,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5636363636363636</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4933333333333333</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4821428571428572</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.8205128205128205</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1530,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4545454545454545</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1556,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3111111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2896825396825397</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C23">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1680,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1769436997319035</v>
+        <v>0.3253968253968254</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.7470588235294118</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,21 +1745,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.1876675603217158</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>303</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.7196652719665272</v>
+        <v>0.74</v>
       </c>
       <c r="L25">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1756,21 +1795,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.01127940702545923</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3068</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6923076923076923</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1782,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.6813559322033899</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L27">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="M27">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1808,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.68</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1834,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1860,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.651685393258427</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1886,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.648936170212766</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1912,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.6222222222222222</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1938,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5857142857142857</v>
+        <v>0.59375</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1964,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5342465753424658</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1990,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.4871794871794872</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2016,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.456140350877193</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2047,16 +2110,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.453125</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2068,7 +2131,85 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.03260869565217391</v>
+      </c>
+      <c r="L38">
+        <v>39</v>
+      </c>
+      <c r="M38">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>0.91</v>
+      </c>
+      <c r="O38">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <v>0.009752438109527382</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>33</v>
+      </c>
+      <c r="N39">
+        <v>0.79</v>
+      </c>
+      <c r="O39">
+        <v>0.21</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40">
+        <v>0.005625879043600563</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>47</v>
+      </c>
+      <c r="N40">
+        <v>0.6</v>
+      </c>
+      <c r="O40">
+        <v>0.4</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4949</v>
       </c>
     </row>
   </sheetData>
